--- a/Parcial 1/Clases/01 funciones basicas.xlsx
+++ b/Parcial 1/Clases/01 funciones basicas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="1" xr2:uid="{8FD00284-4FBE-4D84-BBA6-DE502194D9FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="4" xr2:uid="{8FD00284-4FBE-4D84-BBA6-DE502194D9FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="120">
   <si>
     <t>Gastos 2018</t>
   </si>
@@ -440,6 +440,36 @@
   </si>
   <si>
     <t>Funcion</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>=ABS($A$2)</t>
+  </si>
+  <si>
+    <t>=ENTERO($A$3)</t>
+  </si>
+  <si>
+    <t>=FACT.DOBLE($A$4)</t>
+  </si>
+  <si>
+    <t>=MULTIPLO.SUPERIOR($A$5,10)</t>
+  </si>
+  <si>
+    <t>=TRUNCAR($A$6)</t>
+  </si>
+  <si>
+    <t>=TRUNCAR($A$7)</t>
+  </si>
+  <si>
+    <t>=TRUNCAR($A$8)</t>
+  </si>
+  <si>
+    <t>&lt;- Comision</t>
+  </si>
+  <si>
+    <t>TOTAL CON COMISION</t>
   </si>
 </sst>
 </file>
@@ -544,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,13 +614,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1190,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF03F8E-6375-45CF-A60D-0F40794D5504}">
   <dimension ref="A2:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" sqref="A21:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1206,21 +1239,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -2854,13 +2887,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D878C342-2C11-4733-A5B6-99AC33AF7F22}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.9296875" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -2873,12 +2906,18 @@
       <c r="B1" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>-23</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1">
         <f>ABS($A$2)</f>
         <v>23</v>
       </c>
@@ -2887,7 +2926,10 @@
       <c r="A3" s="1">
         <v>6.5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1">
         <f>INT($A$3)</f>
         <v>6</v>
       </c>
@@ -2896,7 +2938,10 @@
       <c r="A4" s="1">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1">
         <f>FACTDOUBLE($A$4)</f>
         <v>945</v>
       </c>
@@ -2905,7 +2950,10 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1">
         <f>CEILING($A$5,10)</f>
         <v>10</v>
       </c>
@@ -2914,7 +2962,10 @@
       <c r="A6" s="1">
         <v>-12.986000000000001</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1">
         <f>TRUNC($A$6)</f>
         <v>-12</v>
       </c>
@@ -2923,7 +2974,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1">
         <f>TRUNC($A$7)</f>
         <v>2</v>
       </c>
@@ -2932,7 +2986,10 @@
       <c r="A8" s="1">
         <v>-33</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1">
         <f>TRUNC($A$8)</f>
         <v>-33</v>
       </c>
@@ -3090,7 +3147,7 @@
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
@@ -3129,7 +3186,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3213,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B755F62B-F1F4-4E4C-8E19-59F3D85CC2A6}">
   <dimension ref="A2:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3826,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBA0946-37D9-4769-8659-CC326920F503}">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="A1:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3840,14 +3897,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
@@ -3863,7 +3920,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>83</v>
@@ -4148,6 +4205,9 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>

--- a/Parcial 1/Clases/01 funciones basicas.xlsx
+++ b/Parcial 1/Clases/01 funciones basicas.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 1\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383744C4-1379-4B8F-887E-72E653B48DC9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="4" xr2:uid="{8FD00284-4FBE-4D84-BBA6-DE502194D9FD}"/>
   </bookViews>
@@ -18,7 +19,7 @@
     <sheet name="Ordenamiento" sheetId="3" r:id="rId4"/>
     <sheet name="Direcciones absolutas y relativ" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Bernardo Mondragon Brozon:</t>
         </r>
@@ -50,10 +51,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Aquí se fija el número porque se arrastra hacia abajo (se arrastra sobre los números). </t>
+Aquí se fija solo el número de la celda que queremos fijar porque se arrastra hacia abajo (se arrastra sobre los números). </t>
         </r>
       </text>
     </comment>
@@ -65,7 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Bernardo Mondragon Brozon:</t>
         </r>
@@ -74,10 +75,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Aquí se fija tanto números como columnas.</t>
+Aquí se fija tanto números como columnas. Pero solo es necesario fijar numero en este caso.
+</t>
         </r>
       </text>
     </comment>
@@ -89,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Bernardo Mondragon Brozon:</t>
         </r>
@@ -98,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Se fija la fila y después la columna.</t>
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="130">
   <si>
     <t>Gastos 2018</t>
   </si>
@@ -229,9 +231,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Poner el caracter, luego ir a aligment y luego en horizontal seleccionar rellenar y listo</t>
-  </si>
-  <si>
     <t>NOMBRE DE LA CUENTA</t>
   </si>
   <si>
@@ -394,9 +393,6 @@
     <t>Suponga la siguinete tabla</t>
   </si>
   <si>
-    <t>Se puede ordenar la tabla del sicuiente modo: En la barra de menus hacer click en Datos -&gt; Ordenar</t>
-  </si>
-  <si>
     <t>Para ordenar por fila o columna, hacer click en Opciones en el menu de ordenamiento</t>
   </si>
   <si>
@@ -406,9 +402,6 @@
     <t>Se puede trasponer la tabla hacinedo un pegado especial</t>
   </si>
   <si>
-    <t>Tambien se puede ordenar la tabla horizontalmente especificando la orientacion de los datos</t>
-  </si>
-  <si>
     <t>Primer nombre de la tabla</t>
   </si>
   <si>
@@ -433,9 +426,6 @@
     <t>Numero</t>
   </si>
   <si>
-    <t>Redondeado 0 decimales</t>
-  </si>
-  <si>
     <t>Redondeado a 1 decimal</t>
   </si>
   <si>
@@ -460,9 +450,6 @@
     <t>=TRUNCAR($A$6)</t>
   </si>
   <si>
-    <t>=TRUNCAR($A$7)</t>
-  </si>
-  <si>
     <t>=TRUNCAR($A$8)</t>
   </si>
   <si>
@@ -470,6 +457,51 @@
   </si>
   <si>
     <t>TOTAL CON COMISION</t>
+  </si>
+  <si>
+    <t>&lt;- Cuenta el numero de caldas que están vacías en el rengo seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Cuenta el numero de celdas que no estan vacías en el rango seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Cuenta la cantidad de celdas que tienen números en el rengo seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve el k-ésimo mayor valor de un conjunto de datos. El conjunto de datos puede ser una matriz</t>
+  </si>
+  <si>
+    <t>&lt;- Equivalente a la función piso</t>
+  </si>
+  <si>
+    <t>&lt;- La función techo se puede obtener haciendo uso de la función piso y luego sumando la unidad</t>
+  </si>
+  <si>
+    <t>=TRUNCAR($A$7)+1</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CONTAR.SI</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Redondeado a 0 decimales</t>
+  </si>
+  <si>
+    <t>Poner el caracter, seleccionar las celdas, luego ir a Alineacion,  Alineadion del texto, en dropdown horizontal seleccionar rellenar</t>
+  </si>
+  <si>
+    <t>Se puede ordenar la tabla del siguiente modo: En la barra de menus hacer click en Datos -&gt; Ordenar</t>
+  </si>
+  <si>
+    <t>Tambien se puede ordenar la tabla horizontalmente especificando la orientacion de los datos haciendo click en Opciones en el menu de ordenamiento</t>
   </si>
 </sst>
 </file>
@@ -479,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,14 +538,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="singleAccounting"/>
@@ -531,8 +563,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +584,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -569,12 +614,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,13 +740,41 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF03F8E-6375-45CF-A60D-0F40794D5504}">
-  <dimension ref="A2:O39"/>
+  <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A21:A28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1239,25 +1392,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1296,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -2757,7 +2925,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(Table1[ENERO])</f>
@@ -2808,72 +2976,145 @@
         <v>55670.359882102537</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <f>COUNT(Table1[ENERO])</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <f>COUNTA(Table1[ENERO])</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35">
         <f>COUNTBLANK(Table1[ENERO])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36">
         <f>LARGE(Table1[ENERO],2)</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2">
         <f>MAX(Table1[ENERO])</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2">
         <f>MIN(Table1[ENERO])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2">
         <f>AVERAGE(Table1[ENERO])</f>
         <v>1867.6923076923076</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="15">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <f>COUNT(A43:A48)</f>
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="15">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <f>COUNTA(A43:A48)</f>
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="15">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <f>COUNTBLANK(A43:A48)</f>
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46">
+        <f>COUNTIF(A43:A48,"&lt;&gt;16")</f>
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="15">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2888,7 +3129,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2899,278 +3140,284 @@
     <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>-23</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>111</v>
+      <c r="B2" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="1">
         <f>ABS($A$2)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>6.5</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>112</v>
+      <c r="B3" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C3" s="1">
         <f>INT($A$3)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>113</v>
+      <c r="B4" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="C4" s="1">
         <f>FACTDOUBLE($A$4)</f>
         <v>945</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>114</v>
+      <c r="B5" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <f>CEILING($A$5,10)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>-12.986000000000001</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>115</v>
+      <c r="B6" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="C6" s="1">
         <f>TRUNC($A$6)</f>
         <v>-12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>116</v>
+        <v>2.4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="1">
-        <f>TRUNC($A$7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <f>TRUNC($A$7)+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>-33</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>117</v>
+      <c r="B8" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="C8" s="1">
         <f>TRUNC($A$8)</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="24">
         <f>ROUND(A11,0)</f>
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="25">
         <f>ROUND(A11,1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="26">
         <v>3.4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <f t="shared" ref="B12:B23" si="0">ROUND(A12,0)</f>
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="27">
         <f t="shared" ref="C12:C23" si="1">ROUND(A12,1)</f>
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="26">
         <v>3.6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="27">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="26">
         <v>3.5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="27">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="26">
         <v>3.9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="27">
         <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="26">
         <v>3.1</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="27">
         <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="A17" s="26">
         <v>3.5009999999999999</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="27">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="A18" s="26">
         <v>3.0009999999999999</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="26">
         <v>3.54</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="27">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="A20" s="26">
         <v>3.55</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="27">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="A21" s="26">
         <v>3.49</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="27">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22">
+      <c r="A22" s="26">
         <v>3.45</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="27">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="A23" s="28">
         <v>3.44</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="30">
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
@@ -3183,20 +3430,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC2549-280E-4506-AC87-F85397A6AEC2}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -3206,51 +3453,66 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3259,6 +3521,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,15 +3535,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B755F62B-F1F4-4E4C-8E19-59F3D85CC2A6}">
   <dimension ref="A2:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -3295,19 +3560,19 @@
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -3315,19 +3580,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -3335,19 +3600,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -3355,19 +3620,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -3375,19 +3640,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -3395,19 +3660,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
       </c>
       <c r="D9">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -3415,19 +3680,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
       </c>
       <c r="D10">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -3435,19 +3700,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
       </c>
       <c r="D11">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -3462,7 +3727,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3472,7 +3737,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3482,7 +3747,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -3499,19 +3764,19 @@
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3519,19 +3784,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -3539,19 +3804,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -3559,19 +3824,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
       <c r="D20">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3579,19 +3844,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3599,19 +3864,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -3619,19 +3884,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -3639,19 +3904,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -3666,7 +3931,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -3683,132 +3948,132 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1">
         <v>20</v>
-      </c>
-      <c r="D31" s="1">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1">
-        <v>21</v>
       </c>
       <c r="F31" s="1">
         <v>22</v>
       </c>
-      <c r="G31" s="1">
-        <v>22</v>
+      <c r="G31" s="10">
+        <v>19</v>
       </c>
       <c r="H31" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -3820,7 +4085,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -3872,7 +4137,7 @@
     </row>
   </sheetData>
   <sortState columnSort="1" ref="B28:H32">
-    <sortCondition ref="B31:H31"/>
+    <sortCondition descending="1" ref="B28:H28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3883,8 +4148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBA0946-37D9-4769-8659-CC326920F503}">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="A1:K34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3898,7 +4163,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3908,27 +4173,27 @@
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -3945,13 +4210,13 @@
         <v>44</v>
       </c>
       <c r="F5" s="14">
-        <f>D5*(1+$A$18)</f>
+        <f>D5*(1+A$18)</f>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="14">
         <v>15</v>
@@ -3968,13 +4233,13 @@
         <v>412.50000000000006</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" ref="F6:F16" si="2">D6*(1+$A$18)</f>
+        <f t="shared" ref="F6:F16" si="2">D6*(1+A$18)</f>
         <v>412.50000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="14">
         <v>9</v>
@@ -3997,7 +4262,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
@@ -4020,7 +4285,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="14">
         <v>7</v>
@@ -4043,7 +4308,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="14">
         <v>5</v>
@@ -4066,7 +4331,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="14">
         <v>20</v>
@@ -4089,7 +4354,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="14">
         <v>90</v>
@@ -4112,7 +4377,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="14">
         <v>15</v>
@@ -4158,7 +4423,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="14">
         <v>5</v>
@@ -4181,7 +4446,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="14">
         <v>5</v>
@@ -4207,10 +4472,10 @@
         <v>0.1</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2">
         <f>SUM(D5:D16)</f>
@@ -4223,7 +4488,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="8">
         <f>D18/32</f>
@@ -4236,7 +4501,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -4277,43 +4542,43 @@
         <v>1</v>
       </c>
       <c r="B25" s="15">
-        <f ca="1">B$2*$C25</f>
+        <f>$A25*B$24</f>
         <v>1</v>
       </c>
       <c r="C25" s="15">
-        <f t="shared" ref="C25:K25" ca="1" si="3">C$2*$C25</f>
+        <f t="shared" ref="C25:K34" si="3">$A25*C$24</f>
         <v>2</v>
       </c>
       <c r="D25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -4322,43 +4587,43 @@
         <v>2</v>
       </c>
       <c r="B26" s="15">
-        <f t="shared" ref="B26:K34" ca="1" si="4">B$2*$C26</f>
+        <f t="shared" ref="B26:B34" si="4">$A26*B$24</f>
         <v>2</v>
       </c>
       <c r="C26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4367,43 +4632,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -4412,43 +4677,43 @@
         <v>4</v>
       </c>
       <c r="B28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -4457,43 +4722,43 @@
         <v>5</v>
       </c>
       <c r="B29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
@@ -4502,43 +4767,43 @@
         <v>6</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -4547,43 +4812,43 @@
         <v>7</v>
       </c>
       <c r="B31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -4592,43 +4857,43 @@
         <v>8</v>
       </c>
       <c r="B32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="K32" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -4637,43 +4902,43 @@
         <v>9</v>
       </c>
       <c r="B33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -4682,43 +4947,43 @@
         <v>10</v>
       </c>
       <c r="B34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
